--- a/modelos/OBABEB4461039/OBABEB4461039_Sell Out_metricas.xlsx
+++ b/modelos/OBABEB4461039/OBABEB4461039_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,142 +473,162 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45024</v>
+        <v>45006</v>
       </c>
       <c r="B2" t="n">
-        <v>30.85451202323901</v>
+        <v>30.91194505816404</v>
       </c>
       <c r="C2" t="n">
-        <v>22.7601379649429</v>
+        <v>23.16953170033009</v>
       </c>
       <c r="D2" t="n">
-        <v>39.51773857780793</v>
+        <v>38.44865976588551</v>
       </c>
       <c r="E2" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45021</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45026</v>
+        <v>45012</v>
       </c>
       <c r="B3" t="n">
-        <v>31.81002393045877</v>
+        <v>32.99563861334043</v>
       </c>
       <c r="C3" t="n">
-        <v>23.4415438845778</v>
+        <v>24.61588738914875</v>
       </c>
       <c r="D3" t="n">
-        <v>40.61171641775912</v>
+        <v>40.6905335182683</v>
       </c>
       <c r="E3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45021</v>
+        <v>45005</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45033</v>
+        <v>45024</v>
       </c>
       <c r="B4" t="n">
-        <v>30.28572942164489</v>
+        <v>30.46508492398539</v>
       </c>
       <c r="C4" t="n">
-        <v>22.09596541347252</v>
+        <v>21.90178661264435</v>
       </c>
       <c r="D4" t="n">
-        <v>39.27290474747295</v>
+        <v>39.45061809328807</v>
       </c>
       <c r="E4" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45028</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45040</v>
+        <v>45026</v>
       </c>
       <c r="B5" t="n">
-        <v>27.97508150427836</v>
+        <v>31.13597165081772</v>
       </c>
       <c r="C5" t="n">
-        <v>19.50539662923898</v>
+        <v>22.91667201344406</v>
       </c>
       <c r="D5" t="n">
-        <v>37.34616904300655</v>
+        <v>39.85816704670942</v>
       </c>
       <c r="E5" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45035</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45047</v>
+        <v>45033</v>
       </c>
       <c r="B6" t="n">
-        <v>26.24403190783185</v>
+        <v>29.64189563724784</v>
       </c>
       <c r="C6" t="n">
-        <v>16.82893740345139</v>
+        <v>20.80676923598962</v>
       </c>
       <c r="D6" t="n">
-        <v>35.7956666888462</v>
+        <v>37.93367095565412</v>
       </c>
       <c r="E6" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45042</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45055</v>
+        <v>45040</v>
       </c>
       <c r="B7" t="n">
-        <v>27.84381132912817</v>
+        <v>27.35381393857907</v>
       </c>
       <c r="C7" t="n">
-        <v>18.19712445199488</v>
+        <v>18.43272170511764</v>
       </c>
       <c r="D7" t="n">
-        <v>37.12188649958017</v>
+        <v>36.55457430177583</v>
       </c>
       <c r="E7" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45049</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45063</v>
+        <v>45047</v>
       </c>
       <c r="B8" t="n">
-        <v>24.42555231431146</v>
+        <v>25.63997669613318</v>
       </c>
       <c r="C8" t="n">
-        <v>14.77393845620896</v>
+        <v>16.31059435937127</v>
       </c>
       <c r="D8" t="n">
-        <v>33.37262259103059</v>
+        <v>35.12517326386507</v>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45056</v>
+        <v>45041</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B9" t="n">
+        <v>27.21700436178142</v>
+      </c>
+      <c r="C9" t="n">
+        <v>18.1000663782522</v>
+      </c>
+      <c r="D9" t="n">
+        <v>35.99261475821564</v>
+      </c>
+      <c r="E9" t="n">
+        <v>16</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>45048</v>
       </c>
     </row>
   </sheetData>
@@ -674,25 +694,25 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>46.98433507672815</v>
+        <v>15.30331413809405</v>
       </c>
       <c r="C2" t="n">
-        <v>6.85451202323901</v>
+        <v>3.91194505816404</v>
       </c>
       <c r="D2" t="n">
-        <v>6.85451202323901</v>
+        <v>3.91194505816404</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2856046676349588</v>
+        <v>0.1448868540060756</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2856046676349588</v>
+        <v>0.1448868540060756</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2499160696328903</v>
+        <v>0.1350997641068718</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -700,28 +720,28 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>150.214914306187</v>
+        <v>41.79732307434313</v>
       </c>
       <c r="C3" t="n">
-        <v>12.2562194132688</v>
+        <v>6.465084923985387</v>
       </c>
       <c r="D3" t="n">
-        <v>11.07871669105347</v>
+        <v>6.465084923985387</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7287116614090654</v>
+        <v>0.2693785384993911</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7220651430528355</v>
+        <v>0.2693785384993911</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4902314233852028</v>
+        <v>0.2374029135549291</v>
       </c>
       <c r="H3" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -729,25 +749,25 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>140.2758667999848</v>
+        <v>136.4281230169772</v>
       </c>
       <c r="C4" t="n">
-        <v>11.84381132912817</v>
+        <v>11.68024498959577</v>
       </c>
       <c r="D4" t="n">
-        <v>11.84381132912817</v>
+        <v>10.44291448069445</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7402382080705108</v>
+        <v>0.6910106762907664</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7402382080705108</v>
+        <v>0.6845576457145903</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5402728900650839</v>
+        <v>0.4696993664688009</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5">
@@ -755,22 +775,22 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>269.7987688301827</v>
+        <v>134.8582662970437</v>
       </c>
       <c r="C5" t="n">
-        <v>16.42555231431146</v>
+        <v>11.61284918945578</v>
       </c>
       <c r="D5" t="n">
-        <v>16.42555231431146</v>
+        <v>11.60632148756093</v>
       </c>
       <c r="E5" t="n">
-        <v>2.053194039288933</v>
+        <v>0.6361418294804417</v>
       </c>
       <c r="F5" t="n">
-        <v>2.053194039288933</v>
+        <v>0.6361418294804417</v>
       </c>
       <c r="G5" t="n">
-        <v>1.013123980439453</v>
+        <v>0.4817101133480092</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>

--- a/modelos/OBABEB4461039/OBABEB4461039_Sell Out_metricas.xlsx
+++ b/modelos/OBABEB4461039/OBABEB4461039_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,162 +473,142 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45006</v>
+        <v>45024</v>
       </c>
       <c r="B2" t="n">
-        <v>30.91194505816404</v>
+        <v>30.46508492504686</v>
       </c>
       <c r="C2" t="n">
-        <v>23.16953170033009</v>
+        <v>22.24267477047277</v>
       </c>
       <c r="D2" t="n">
-        <v>38.44865976588551</v>
+        <v>38.72789092568746</v>
       </c>
       <c r="E2" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45005</v>
+        <v>45021</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45012</v>
+        <v>45026</v>
       </c>
       <c r="B3" t="n">
-        <v>32.99563861334043</v>
+        <v>31.13597165189186</v>
       </c>
       <c r="C3" t="n">
-        <v>24.61588738914875</v>
+        <v>22.57978595934727</v>
       </c>
       <c r="D3" t="n">
-        <v>40.6905335182683</v>
+        <v>39.55628427121624</v>
       </c>
       <c r="E3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45005</v>
+        <v>45021</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45024</v>
+        <v>45033</v>
       </c>
       <c r="B4" t="n">
-        <v>30.46508492398539</v>
+        <v>29.64189562034232</v>
       </c>
       <c r="C4" t="n">
-        <v>21.90178661264435</v>
+        <v>21.87651464722919</v>
       </c>
       <c r="D4" t="n">
-        <v>39.45061809328807</v>
+        <v>38.09616727858126</v>
       </c>
       <c r="E4" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45020</v>
+        <v>45028</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45026</v>
+        <v>45040</v>
       </c>
       <c r="B5" t="n">
-        <v>31.13597165081772</v>
+        <v>27.35381393857856</v>
       </c>
       <c r="C5" t="n">
-        <v>22.91667201344406</v>
+        <v>18.87637426198069</v>
       </c>
       <c r="D5" t="n">
-        <v>39.85816704670942</v>
+        <v>36.75058346631919</v>
       </c>
       <c r="E5" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45020</v>
+        <v>45035</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45033</v>
+        <v>45047</v>
       </c>
       <c r="B6" t="n">
-        <v>29.64189563724784</v>
+        <v>25.63997669613309</v>
       </c>
       <c r="C6" t="n">
-        <v>20.80676923598962</v>
+        <v>16.37119091867149</v>
       </c>
       <c r="D6" t="n">
-        <v>37.93367095565412</v>
+        <v>35.30546995765654</v>
       </c>
       <c r="E6" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45027</v>
+        <v>45042</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45040</v>
+        <v>45055</v>
       </c>
       <c r="B7" t="n">
-        <v>27.35381393857907</v>
+        <v>27.21700436179601</v>
       </c>
       <c r="C7" t="n">
-        <v>18.43272170511764</v>
+        <v>18.44165267007496</v>
       </c>
       <c r="D7" t="n">
-        <v>36.55457430177583</v>
+        <v>36.31503623061746</v>
       </c>
       <c r="E7" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45034</v>
+        <v>45049</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45047</v>
+        <v>45063</v>
       </c>
       <c r="B8" t="n">
-        <v>25.63997669613318</v>
+        <v>23.94236940763813</v>
       </c>
       <c r="C8" t="n">
-        <v>16.31059435937127</v>
+        <v>14.67056541982294</v>
       </c>
       <c r="D8" t="n">
-        <v>35.12517326386507</v>
+        <v>32.17292409535472</v>
       </c>
       <c r="E8" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45041</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45055</v>
-      </c>
-      <c r="B9" t="n">
-        <v>27.21700436178142</v>
-      </c>
-      <c r="C9" t="n">
-        <v>18.1000663782522</v>
-      </c>
-      <c r="D9" t="n">
-        <v>35.99261475821564</v>
-      </c>
-      <c r="E9" t="n">
-        <v>16</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>45048</v>
+        <v>45056</v>
       </c>
     </row>
   </sheetData>
@@ -694,25 +674,25 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>15.30331413809405</v>
+        <v>41.79732308806811</v>
       </c>
       <c r="C2" t="n">
-        <v>3.91194505816404</v>
+        <v>6.465084925046856</v>
       </c>
       <c r="D2" t="n">
-        <v>3.91194505816404</v>
+        <v>6.465084925046856</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1448868540060756</v>
+        <v>0.269378538543619</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1448868540060756</v>
+        <v>0.269378538543619</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1350997641068718</v>
+        <v>0.2374029135892803</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -720,28 +700,28 @@
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>41.79732307434313</v>
+        <v>136.4281228812104</v>
       </c>
       <c r="C3" t="n">
-        <v>6.465084923985387</v>
+        <v>11.68024498378396</v>
       </c>
       <c r="D3" t="n">
-        <v>6.465084923985387</v>
+        <v>10.44291447673646</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2693785384993911</v>
+        <v>0.6910106759778563</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2693785384993911</v>
+        <v>0.6845576457389845</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2374029135549291</v>
+        <v>0.4696993663563009</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4">
@@ -749,25 +729,25 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>136.4281230169772</v>
+        <v>125.8211868525507</v>
       </c>
       <c r="C4" t="n">
-        <v>11.68024498959577</v>
+        <v>11.21700436179601</v>
       </c>
       <c r="D4" t="n">
-        <v>10.44291448069445</v>
+        <v>11.21700436179601</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6910106762907664</v>
+        <v>0.7010627726122505</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6845576457145903</v>
+        <v>0.7010627726122505</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4696993664688009</v>
+        <v>0.5191014290528605</v>
       </c>
       <c r="H4" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -775,22 +755,22 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>134.8582662970437</v>
+        <v>254.159142329596</v>
       </c>
       <c r="C5" t="n">
-        <v>11.61284918945578</v>
+        <v>15.94236940763813</v>
       </c>
       <c r="D5" t="n">
-        <v>11.60632148756093</v>
+        <v>15.94236940763813</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6361418294804417</v>
+        <v>1.992796175954766</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6361418294804417</v>
+        <v>1.992796175954766</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4817101133480092</v>
+        <v>0.9981957946943005</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>

--- a/modelos/OBABEB4461039/OBABEB4461039_Sell Out_metricas.xlsx
+++ b/modelos/OBABEB4461039/OBABEB4461039_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45024</v>
       </c>
       <c r="B2" t="n">
-        <v>30.46508492504686</v>
+        <v>30.95374515234827</v>
       </c>
       <c r="C2" t="n">
-        <v>22.24267477047277</v>
+        <v>21.89709329307412</v>
       </c>
       <c r="D2" t="n">
-        <v>38.72789092568746</v>
+        <v>39.42019554979396</v>
       </c>
       <c r="E2" t="n">
         <v>24</v>
@@ -496,13 +496,13 @@
         <v>45026</v>
       </c>
       <c r="B3" t="n">
-        <v>31.13597165189186</v>
+        <v>31.93506461399211</v>
       </c>
       <c r="C3" t="n">
-        <v>22.57978595934727</v>
+        <v>23.27999836139476</v>
       </c>
       <c r="D3" t="n">
-        <v>39.55628427121624</v>
+        <v>40.64792566179164</v>
       </c>
       <c r="E3" t="n">
         <v>22</v>
@@ -516,13 +516,13 @@
         <v>45033</v>
       </c>
       <c r="B4" t="n">
-        <v>29.64189562034232</v>
+        <v>30.33493576138802</v>
       </c>
       <c r="C4" t="n">
-        <v>21.87651464722919</v>
+        <v>21.19709474339983</v>
       </c>
       <c r="D4" t="n">
-        <v>38.09616727858126</v>
+        <v>38.83646405470378</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -536,13 +536,13 @@
         <v>45040</v>
       </c>
       <c r="B5" t="n">
-        <v>27.35381393857856</v>
+        <v>28.03032561113271</v>
       </c>
       <c r="C5" t="n">
-        <v>18.87637426198069</v>
+        <v>18.85618608397098</v>
       </c>
       <c r="D5" t="n">
-        <v>36.75058346631919</v>
+        <v>36.99148688490821</v>
       </c>
       <c r="E5" t="n">
         <v>14</v>
@@ -556,13 +556,13 @@
         <v>45047</v>
       </c>
       <c r="B6" t="n">
-        <v>25.63997669613309</v>
+        <v>26.26221838127464</v>
       </c>
       <c r="C6" t="n">
-        <v>16.37119091867149</v>
+        <v>17.02981015935606</v>
       </c>
       <c r="D6" t="n">
-        <v>35.30546995765654</v>
+        <v>35.58663407567447</v>
       </c>
       <c r="E6" t="n">
         <v>23</v>
@@ -576,13 +576,13 @@
         <v>45055</v>
       </c>
       <c r="B7" t="n">
-        <v>27.21700436179601</v>
+        <v>27.92869037852187</v>
       </c>
       <c r="C7" t="n">
-        <v>18.44165267007496</v>
+        <v>18.78653980245925</v>
       </c>
       <c r="D7" t="n">
-        <v>36.31503623061746</v>
+        <v>38.14193302608151</v>
       </c>
       <c r="E7" t="n">
         <v>16</v>
@@ -596,13 +596,13 @@
         <v>45063</v>
       </c>
       <c r="B8" t="n">
-        <v>23.94236940763813</v>
+        <v>25.22211163635094</v>
       </c>
       <c r="C8" t="n">
-        <v>14.67056541982294</v>
+        <v>15.90939821881347</v>
       </c>
       <c r="D8" t="n">
-        <v>32.17292409535472</v>
+        <v>34.63130949732275</v>
       </c>
       <c r="E8" t="n">
         <v>8</v>
@@ -677,22 +677,22 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>41.79732308806811</v>
+        <v>48.354571643807</v>
       </c>
       <c r="C2" t="n">
-        <v>6.465084925046856</v>
+        <v>6.953745152348265</v>
       </c>
       <c r="D2" t="n">
-        <v>6.465084925046856</v>
+        <v>6.953745152348265</v>
       </c>
       <c r="E2" t="n">
-        <v>0.269378538543619</v>
+        <v>0.2897393813478444</v>
       </c>
       <c r="F2" t="n">
-        <v>0.269378538543619</v>
+        <v>0.2897393813478444</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2374029135892803</v>
+        <v>0.2530762965497765</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -703,22 +703,22 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>136.4281228812104</v>
+        <v>151.674403064295</v>
       </c>
       <c r="C3" t="n">
-        <v>11.68024498378396</v>
+        <v>12.31561622755009</v>
       </c>
       <c r="D3" t="n">
-        <v>10.44291447673646</v>
+        <v>11.14063609194687</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6910106759778563</v>
+        <v>0.7322630349989638</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6845576457389845</v>
+        <v>0.726879980585729</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4696993663563009</v>
+        <v>0.4921311121564453</v>
       </c>
       <c r="H3" t="n">
         <v>0.25</v>
@@ -729,22 +729,22 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>125.8211868525507</v>
+        <v>142.2936541466403</v>
       </c>
       <c r="C4" t="n">
-        <v>11.21700436179601</v>
+        <v>11.92869037852187</v>
       </c>
       <c r="D4" t="n">
-        <v>11.21700436179601</v>
+        <v>11.92869037852187</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7010627726122505</v>
+        <v>0.7455431486576169</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7010627726122505</v>
+        <v>0.7455431486576169</v>
       </c>
       <c r="G4" t="n">
-        <v>0.5191014290528605</v>
+        <v>0.543093375911529</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -755,22 +755,22 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>254.159142329596</v>
+        <v>296.6011292149345</v>
       </c>
       <c r="C5" t="n">
-        <v>15.94236940763813</v>
+        <v>17.22211163635094</v>
       </c>
       <c r="D5" t="n">
-        <v>15.94236940763813</v>
+        <v>17.22211163635094</v>
       </c>
       <c r="E5" t="n">
-        <v>1.992796175954766</v>
+        <v>2.152763954543868</v>
       </c>
       <c r="F5" t="n">
-        <v>1.992796175954766</v>
+        <v>2.152763954543868</v>
       </c>
       <c r="G5" t="n">
-        <v>0.9981957946943005</v>
+        <v>1.036786091435974</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
